--- a/words.xlsx
+++ b/words.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,30 @@
   </si>
   <si>
     <t>预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memorize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,18 +415,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +437,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -423,8 +457,17 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -433,6 +476,55 @@
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,103 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11640" windowWidth="19200" xWindow="0" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>world</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>predict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memorize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记住</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -113,20 +53,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -414,150 +354,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="20.25"/>
+    <col customWidth="1" max="2" min="2" style="1" width="18.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>世界</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>predict</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>预测</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>dictionary</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>字典</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>memorize</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>记住</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
 </worksheet>
 </file>